--- a/DailyReportTemplate1.xlsx
+++ b/DailyReportTemplate1.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="customers" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,7 +460,7 @@
     <row r="1" ht="27" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ELDORET DEPOT</t>
+          <t>Eldoret</t>
         </is>
       </c>
     </row>
@@ -511,7 +512,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="C3:C100000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"ALPHACHE,BORMAN ENTERPRISES,CANARY C AGENCY,DIESEL POWER,ELDORET PETROLEUM,EQUITORIAL OILS,GALLANT FUELS,GIKUSON,HILCONSAM,KEALSEY,KENDRIE EDGE,MANOA OIL,RICHFIELD SCION,ROBAH LOGISTICS,TALAI FILLING STATION,TOKYO,TUNNEL INVESTMENT,"</formula1>
+      <formula1>=OFFSET('customers'!$A$1,0,0,COUNTA('customers'!$A:$A) - 0,1)</formula1>
     </dataValidation>
     <dataValidation sqref="B3:B100000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"AGO,PMS,"</formula1>
@@ -519,4 +520,261 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ALPHACHE SERVICES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BELAN PETROLEUM LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BORMAN ENTERPRISES LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CANARY C AGENCY</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DELTEX ENERGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DIESEL POWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELDORET PETROLEUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EQUITORIAL OILS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GALLANT FUEL ENTERPRISES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GIKUSON </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HASS PETROLEUM (K) LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HEYINZ COMPANY LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HEZDEP FUELS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HILCONSAM ENTERPRISES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>JEMBO ENTERPRISES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KEALSEY ENTERPRISES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KENDRIE-EDGE ENTERPRISES LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LEBOO COMPANY LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LORUK ENERGY</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MALEWA F STATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MANOA OIL (K) LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MARANGO INVESTMENTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MARS PETROLEUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>OBED PETROLEUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>QUICKFILL LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RADHAN FILLING STATION LTD </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RANGERS OIL LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RESTOP ENERGY LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RICHFIELD SCION GLOBAL SOLUTIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ROBAH LOGISTICS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ROYAL OIL COMPANY LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TALAI FILLING STATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TOKYO (K) SERVICES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TUNNEL INVESTMENT</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/DailyReportTemplate1.xlsx
+++ b/DailyReportTemplate1.xlsx
@@ -460,7 +460,7 @@
     <row r="1" ht="27" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Eldoret</t>
+          <t>ELDORET</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       <formula1>=OFFSET('customers'!$A$1,0,0,COUNTA('customers'!$A:$A) - 0,1)</formula1>
     </dataValidation>
     <dataValidation sqref="B3:B100000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"AGO,PMS,"</formula1>
+      <formula1>"PMS,AGO,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DailyReportTemplate1.xlsx
+++ b/DailyReportTemplate1.xlsx
@@ -1503,6 +1503,11 @@
           <t>sad</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>kbc 3457</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
